--- a/raw_data/20200818_saline/20200818_Sensor1_Test_56.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_56.xlsx
@@ -1,583 +1,999 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69323F0-7C0D-41D4-8845-D0FE8A510C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>49687.852265</v>
+        <v>49687.852265000001</v>
       </c>
       <c r="B2" s="1">
-        <v>13.802181</v>
+        <v>13.802180999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.476000</v>
+        <v>901.476</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.902000</v>
+        <v>-198.90199999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>49697.908115</v>
+        <v>49697.908114999998</v>
       </c>
       <c r="G2" s="1">
         <v>13.804974</v>
       </c>
       <c r="H2" s="1">
-        <v>918.987000</v>
+        <v>918.98699999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.345000</v>
+        <v>-168.345</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>49708.015093</v>
+        <v>49708.015093000002</v>
       </c>
       <c r="L2" s="1">
         <v>13.807782</v>
       </c>
       <c r="M2" s="1">
-        <v>941.900000</v>
+        <v>941.9</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.640000</v>
+        <v>-119.64</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>49718.175144</v>
+        <v>49718.175144000001</v>
       </c>
       <c r="Q2" s="1">
         <v>13.810604</v>
       </c>
       <c r="R2" s="1">
-        <v>948.828000</v>
+        <v>948.82799999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.479000</v>
+        <v>-103.479</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>49728.731039</v>
+        <v>49728.731038999998</v>
       </c>
       <c r="V2" s="1">
-        <v>13.813536</v>
+        <v>13.813535999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>955.456000</v>
+        <v>955.45600000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.502200</v>
+        <v>-88.502200000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>49739.218443</v>
+        <v>49739.218442999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.816450</v>
+        <v>13.81645</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.535000</v>
+        <v>962.53499999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.914500</v>
+        <v>-76.914500000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>49749.768317</v>
+        <v>49749.768317000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.819380</v>
+        <v>13.819380000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.179000</v>
+        <v>967.17899999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.837400</v>
+        <v>-74.837400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>49760.561791</v>
@@ -586,270 +1002,270 @@
         <v>13.822378</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.407000</v>
+        <v>974.40700000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.646900</v>
+        <v>-79.646900000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>49771.154849</v>
+        <v>49771.154848999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.825321</v>
+        <v>13.825321000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.539000</v>
+        <v>982.53899999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.327600</v>
+        <v>-91.327600000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>49782.183858</v>
+        <v>49782.183857999997</v>
       </c>
       <c r="AU2" s="1">
         <v>13.828384</v>
       </c>
       <c r="AV2" s="1">
-        <v>992.426000</v>
+        <v>992.42600000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.113000</v>
+        <v>-109.113</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>49793.288822</v>
+        <v>49793.288822000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.831469</v>
       </c>
       <c r="BA2" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.802000</v>
+        <v>-124.80200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>49804.344117</v>
+        <v>49804.344117000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.834540</v>
+        <v>13.834540000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.825000</v>
+        <v>-196.82499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>49815.373655</v>
+        <v>49815.373655000003</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.837604</v>
+        <v>13.837604000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.414000</v>
+        <v>-313.41399999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>49826.560952</v>
       </c>
       <c r="BO2" s="1">
-        <v>13.840711</v>
+        <v>13.840711000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-497.132000</v>
+        <v>-497.13200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>49838.481768</v>
+        <v>49838.481767999998</v>
       </c>
       <c r="BT2" s="1">
         <v>13.844023</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.690000</v>
+        <v>1336.69</v>
       </c>
       <c r="BV2" s="1">
-        <v>-698.600000</v>
+        <v>-698.6</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>49849.196346</v>
+        <v>49849.196345999997</v>
       </c>
       <c r="BY2" s="1">
         <v>13.846999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA2" s="1">
-        <v>-913.843000</v>
+        <v>-913.84299999999996</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>49859.920884</v>
+        <v>49859.920883999999</v>
       </c>
       <c r="CD2" s="1">
         <v>13.849978</v>
       </c>
       <c r="CE2" s="1">
-        <v>1829.690000</v>
+        <v>1829.69</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1425.130000</v>
+        <v>-1425.13</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>49688.204881</v>
+        <v>49688.204880999998</v>
       </c>
       <c r="B3" s="1">
         <v>13.802279</v>
       </c>
       <c r="C3" s="1">
-        <v>901.671000</v>
+        <v>901.67100000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.803000</v>
+        <v>-198.803</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>49698.252337</v>
+        <v>49698.252336999998</v>
       </c>
       <c r="G3" s="1">
-        <v>13.805070</v>
+        <v>13.805070000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>918.953000</v>
+        <v>918.95299999999997</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.340000</v>
+        <v>-168.34</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>49708.436692</v>
+        <v>49708.436692000003</v>
       </c>
       <c r="L3" s="1">
-        <v>13.807899</v>
+        <v>13.807899000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.038000</v>
+        <v>942.03800000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.522000</v>
+        <v>-119.52200000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>49718.600751</v>
+        <v>49718.600750999998</v>
       </c>
       <c r="Q3" s="1">
         <v>13.810722</v>
       </c>
       <c r="R3" s="1">
-        <v>948.823000</v>
+        <v>948.82299999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.444000</v>
+        <v>-103.444</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>49729.138217</v>
       </c>
       <c r="V3" s="1">
-        <v>13.813650</v>
+        <v>13.813650000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>955.388000</v>
+        <v>955.38800000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.438000</v>
+        <v>-88.438000000000002</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>49739.584963</v>
+        <v>49739.584963000001</v>
       </c>
       <c r="AA3" s="1">
         <v>13.816551</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.494000</v>
+        <v>962.49400000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.999700</v>
+        <v>-76.999700000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>49750.141341</v>
+        <v>49750.141341000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.819484</v>
+        <v>13.819483999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.166000</v>
+        <v>967.16600000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.761500</v>
+        <v>-74.761499999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>49760.944707</v>
+        <v>49760.944707000002</v>
       </c>
       <c r="AK3" s="1">
         <v>13.822485</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.411000</v>
+        <v>974.41099999999994</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.623600</v>
+        <v>-79.623599999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>49771.910721</v>
@@ -858,73 +1274,73 @@
         <v>13.825531</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.520000</v>
+        <v>982.52</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.327400</v>
+        <v>-91.327399999999997</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>49782.597558</v>
+        <v>49782.597558000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>13.828499</v>
+        <v>13.828499000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>992.437000</v>
+        <v>992.43700000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.125000</v>
+        <v>-109.125</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>49793.694533</v>
+        <v>49793.694533000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.831582</v>
+        <v>13.831581999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.813000</v>
+        <v>-124.813</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>49804.706235</v>
+        <v>49804.706234999998</v>
       </c>
       <c r="BE3" s="1">
         <v>13.834641</v>
       </c>
       <c r="BF3" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.820000</v>
+        <v>-196.82</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>49815.773927</v>
+        <v>49815.773927000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.837715</v>
+        <v>13.837714999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1106.620000</v>
+        <v>1106.6199999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.433000</v>
+        <v>-313.43299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>49827.303431</v>
@@ -933,105 +1349,105 @@
         <v>13.840918</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-497.188000</v>
+        <v>-497.18799999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>49838.627096</v>
+        <v>49838.627095999997</v>
       </c>
       <c r="BT3" s="1">
         <v>13.844063</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.660000</v>
+        <v>1336.66</v>
       </c>
       <c r="BV3" s="1">
-        <v>-698.578000</v>
+        <v>-698.57799999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>49849.379898</v>
+        <v>49849.379897999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.847050</v>
+        <v>13.847049999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="CA3" s="1">
-        <v>-913.876000</v>
+        <v>-913.87599999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>49860.515083</v>
+        <v>49860.515082999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.850143</v>
+        <v>13.850142999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1830.500000</v>
+        <v>1830.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1423.520000</v>
+        <v>-1423.52</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>49688.628462</v>
+        <v>49688.628462000001</v>
       </c>
       <c r="B4" s="1">
-        <v>13.802397</v>
+        <v>13.802396999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.592000</v>
+        <v>901.59199999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.679000</v>
+        <v>-198.679</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>49698.664513</v>
+        <v>49698.664513000003</v>
       </c>
       <c r="G4" s="1">
         <v>13.805185</v>
       </c>
       <c r="H4" s="1">
-        <v>918.756000</v>
+        <v>918.75599999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.511000</v>
+        <v>-168.511</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>49708.742723</v>
+        <v>49708.742723000003</v>
       </c>
       <c r="L4" s="1">
-        <v>13.807984</v>
+        <v>13.807983999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>941.983000</v>
+        <v>941.98299999999995</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.625000</v>
+        <v>-119.625</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>49718.942486</v>
@@ -1040,725 +1456,725 @@
         <v>13.810817</v>
       </c>
       <c r="R4" s="1">
-        <v>948.846000</v>
+        <v>948.846</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.462000</v>
+        <v>-103.462</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>49729.480456</v>
+        <v>49729.480455999998</v>
       </c>
       <c r="V4" s="1">
-        <v>13.813745</v>
+        <v>13.813745000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.400000</v>
+        <v>955.4</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.468500</v>
+        <v>-88.468500000000006</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>49739.935658</v>
+        <v>49739.935658000002</v>
       </c>
       <c r="AA4" s="1">
         <v>13.816649</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.517000</v>
+        <v>962.51700000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.933800</v>
+        <v>-76.933800000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>49750.484540</v>
+        <v>49750.484539999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.819579</v>
+        <v>13.819578999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.220000</v>
+        <v>967.22</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.814600</v>
+        <v>-74.814599999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>49761.643535</v>
+        <v>49761.643535000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.822679</v>
+        <v>13.822679000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.393000</v>
+        <v>974.39300000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.652000</v>
+        <v>-79.652000000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>49772.271311</v>
+        <v>49772.271310999997</v>
       </c>
       <c r="AP4" s="1">
         <v>13.825631</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.549000</v>
+        <v>982.54899999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.323100</v>
+        <v>-91.323099999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>49782.945547</v>
+        <v>49782.945547000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.828596</v>
+        <v>13.828595999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>992.465000</v>
+        <v>992.46500000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.129000</v>
+        <v>-109.129</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>49794.053651</v>
+        <v>49794.053651000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>13.831682</v>
+        <v>13.831682000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>49805.377779</v>
+        <v>49805.377779000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.834827</v>
+        <v>13.834827000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.820000</v>
+        <v>-196.82</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>49816.454965</v>
+        <v>49816.454964999997</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.837904</v>
       </c>
       <c r="BK4" s="1">
-        <v>1106.600000</v>
+        <v>1106.5999999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.454000</v>
+        <v>-313.45400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>49827.417016</v>
+        <v>49827.417015999999</v>
       </c>
       <c r="BO4" s="1">
         <v>13.840949</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-497.188000</v>
+        <v>-497.18799999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>49839.063113</v>
+        <v>49839.063112999997</v>
       </c>
       <c r="BT4" s="1">
         <v>13.844184</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.600000</v>
+        <v>1336.6</v>
       </c>
       <c r="BV4" s="1">
-        <v>-698.638000</v>
+        <v>-698.63800000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>49849.830729</v>
+        <v>49849.830729000001</v>
       </c>
       <c r="BY4" s="1">
         <v>13.847175</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA4" s="1">
-        <v>-913.907000</v>
+        <v>-913.90700000000004</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>49861.055308</v>
+        <v>49861.055308000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.850293</v>
+        <v>13.850293000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1829.170000</v>
+        <v>1829.17</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1424.420000</v>
+        <v>-1424.42</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>49688.915150</v>
+        <v>49688.915150000001</v>
       </c>
       <c r="B5" s="1">
         <v>13.802476</v>
       </c>
       <c r="C5" s="1">
-        <v>901.584000</v>
+        <v>901.58399999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.809000</v>
+        <v>-198.809</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>49698.942274</v>
+        <v>49698.942274000001</v>
       </c>
       <c r="G5" s="1">
-        <v>13.805262</v>
+        <v>13.805262000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.978000</v>
+        <v>918.97799999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.456000</v>
+        <v>-168.45599999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>49709.086948</v>
+        <v>49709.086947999996</v>
       </c>
       <c r="L5" s="1">
-        <v>13.808080</v>
+        <v>13.80808</v>
       </c>
       <c r="M5" s="1">
-        <v>942.042000</v>
+        <v>942.04200000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.491000</v>
+        <v>-119.491</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>49719.288661</v>
+        <v>49719.288660999999</v>
       </c>
       <c r="Q5" s="1">
         <v>13.810914</v>
       </c>
       <c r="R5" s="1">
-        <v>948.849000</v>
+        <v>948.84900000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.470000</v>
+        <v>-103.47</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>49729.826701</v>
+        <v>49729.826700999998</v>
       </c>
       <c r="V5" s="1">
         <v>13.813841</v>
       </c>
       <c r="W5" s="1">
-        <v>955.337000</v>
+        <v>955.33699999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.346400</v>
+        <v>-88.346400000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>49740.631052</v>
+        <v>49740.631051999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.816842</v>
+        <v>13.816841999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.573000</v>
+        <v>962.57299999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.994800</v>
+        <v>-76.994799999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>49751.170011</v>
+        <v>49751.170011000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.819769</v>
+        <v>13.819769000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.205000</v>
+        <v>967.20500000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.808300</v>
+        <v>-74.808300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>49761.991229</v>
+        <v>49761.991228999999</v>
       </c>
       <c r="AK5" s="1">
         <v>13.822775</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.403000</v>
+        <v>974.40300000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.638500</v>
+        <v>-79.638499999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>49772.631936</v>
+        <v>49772.631935999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.825731</v>
+        <v>13.825730999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.541000</v>
+        <v>982.54100000000005</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.350800</v>
+        <v>-91.350800000000007</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>49783.305315</v>
+        <v>49783.305314999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.828696</v>
+        <v>13.828696000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>992.453000</v>
+        <v>992.45299999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.135000</v>
+        <v>-109.13500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>49794.709858</v>
+        <v>49794.709858000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.831864</v>
+        <v>13.831863999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.808000</v>
+        <v>-124.80800000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>49805.819219</v>
+        <v>49805.819218999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.834950</v>
+        <v>13.834949999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.834000</v>
+        <v>-196.834</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>49816.568021</v>
+        <v>49816.568020999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.837936</v>
+        <v>13.837935999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.456000</v>
+        <v>-313.45600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>49827.812824</v>
+        <v>49827.812824000001</v>
       </c>
       <c r="BO5" s="1">
         <v>13.841059</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.940000</v>
+        <v>1214.94</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-497.165000</v>
+        <v>-497.16500000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>49839.491127</v>
+        <v>49839.491127000001</v>
       </c>
       <c r="BT5" s="1">
         <v>13.844303</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.620000</v>
+        <v>1336.62</v>
       </c>
       <c r="BV5" s="1">
-        <v>-698.626000</v>
+        <v>-698.62599999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>49850.289528</v>
+        <v>49850.289528000001</v>
       </c>
       <c r="BY5" s="1">
         <v>13.847303</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-913.970000</v>
+        <v>-913.97</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>49861.592890</v>
+        <v>49861.59289</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.850442</v>
+        <v>13.850441999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1830.620000</v>
+        <v>1830.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1424.790000</v>
+        <v>-1424.79</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>49689.255901</v>
+        <v>49689.255900999997</v>
       </c>
       <c r="B6" s="1">
         <v>13.802571</v>
       </c>
       <c r="C6" s="1">
-        <v>901.296000</v>
+        <v>901.29600000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.652000</v>
+        <v>-198.65199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>49699.286343</v>
       </c>
       <c r="G6" s="1">
-        <v>13.805357</v>
+        <v>13.805357000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>919.204000</v>
+        <v>919.20399999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.169000</v>
+        <v>-168.16900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>49709.435641</v>
+        <v>49709.435640999996</v>
       </c>
       <c r="L6" s="1">
-        <v>13.808177</v>
+        <v>13.808177000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>942.106000</v>
+        <v>942.10599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.601000</v>
+        <v>-119.601</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>49719.637845</v>
+        <v>49719.637844999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.811011</v>
+        <v>13.811011000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.799000</v>
+        <v>948.79899999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.441000</v>
+        <v>-103.441</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>49730.507176</v>
+        <v>49730.507175999999</v>
       </c>
       <c r="V6" s="1">
-        <v>13.814030</v>
+        <v>13.814030000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.371000</v>
+        <v>955.37099999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.446200</v>
+        <v>-88.446200000000005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>49740.981690</v>
+        <v>49740.981690000001</v>
       </c>
       <c r="AA6" s="1">
         <v>13.816939</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.572000</v>
+        <v>962.572</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.985700</v>
+        <v>-76.985699999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>49751.516725</v>
+        <v>49751.516725000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.819866</v>
+        <v>13.819865999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.215000</v>
+        <v>967.21500000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.819900</v>
+        <v>-74.819900000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>49762.342892</v>
+        <v>49762.342892000001</v>
       </c>
       <c r="AK6" s="1">
         <v>13.822873</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.643600</v>
+        <v>-79.643600000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>49773.301510</v>
+        <v>49773.301509999998</v>
       </c>
       <c r="AP6" s="1">
         <v>13.825917</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.526000</v>
+        <v>982.52599999999995</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.322400</v>
+        <v>-91.322400000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>49783.980865</v>
+        <v>49783.980864999998</v>
       </c>
       <c r="AU6" s="1">
         <v>13.828884</v>
       </c>
       <c r="AV6" s="1">
-        <v>992.466000</v>
+        <v>992.46600000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.115000</v>
+        <v>-109.11499999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>49795.130434</v>
+        <v>49795.130433999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.831981</v>
+        <v>13.831981000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.808000</v>
+        <v>-124.80800000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>49806.180834</v>
+        <v>49806.180833999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>13.835050</v>
+        <v>13.835050000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1039.710000</v>
+        <v>1039.71</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.830000</v>
+        <v>-196.83</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>49816.923158</v>
+        <v>49816.923157999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>13.838034</v>
       </c>
       <c r="BK6" s="1">
-        <v>1106.630000</v>
+        <v>1106.6300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.424000</v>
+        <v>-313.42399999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>49828.235909</v>
+        <v>49828.235909000003</v>
       </c>
       <c r="BO6" s="1">
         <v>13.841177</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-497.194000</v>
+        <v>-497.19400000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>49839.919670</v>
+        <v>49839.919670000003</v>
       </c>
       <c r="BT6" s="1">
         <v>13.844422</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.600000</v>
+        <v>1336.6</v>
       </c>
       <c r="BV6" s="1">
-        <v>-698.586000</v>
+        <v>-698.58600000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>49850.734936</v>
+        <v>49850.734936000001</v>
       </c>
       <c r="BY6" s="1">
         <v>13.847426</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA6" s="1">
-        <v>-913.919000</v>
+        <v>-913.91899999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>49862.132506</v>
+        <v>49862.132506000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.850592</v>
+        <v>13.850592000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.680000</v>
+        <v>1829.68</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1423.830000</v>
+        <v>-1423.83</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>49689.598671</v>
       </c>
@@ -1766,707 +2182,707 @@
         <v>13.802666</v>
       </c>
       <c r="C7" s="1">
-        <v>901.403000</v>
+        <v>901.40300000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.692000</v>
+        <v>-198.69200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>49699.629237</v>
+        <v>49699.629237000001</v>
       </c>
       <c r="G7" s="1">
         <v>13.805453</v>
       </c>
       <c r="H7" s="1">
-        <v>919.081000</v>
+        <v>919.08100000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.797000</v>
+        <v>-168.797</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>49710.127555</v>
+        <v>49710.127554999999</v>
       </c>
       <c r="L7" s="1">
-        <v>13.808369</v>
+        <v>13.808369000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>942.125000</v>
+        <v>942.125</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.467000</v>
+        <v>-119.467</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>49720.356548</v>
+        <v>49720.356548000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.811210</v>
+        <v>13.811210000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.777000</v>
+        <v>948.77700000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.467000</v>
+        <v>-103.467</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>49730.856854</v>
+        <v>49730.856853999998</v>
       </c>
       <c r="V7" s="1">
-        <v>13.814127</v>
+        <v>13.814126999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.372000</v>
+        <v>955.37199999999996</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.405800</v>
+        <v>-88.405799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>49741.329914</v>
+        <v>49741.329914000002</v>
       </c>
       <c r="AA7" s="1">
         <v>13.817036</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.579000</v>
+        <v>962.57899999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.012000</v>
+        <v>-77.012</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>49751.861930</v>
+        <v>49751.861929999999</v>
       </c>
       <c r="AF7" s="1">
         <v>13.819962</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.205000</v>
+        <v>967.20500000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.829500</v>
+        <v>-74.829499999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>49763.006043</v>
+        <v>49763.006043000001</v>
       </c>
       <c r="AK7" s="1">
         <v>13.823057</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.395000</v>
+        <v>974.39499999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.633900</v>
+        <v>-79.633899999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>49773.712191</v>
+        <v>49773.712190999999</v>
       </c>
       <c r="AP7" s="1">
         <v>13.826031</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.526000</v>
+        <v>982.52599999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.333500</v>
+        <v>-91.333500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>49784.436687</v>
+        <v>49784.436687000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.829010</v>
+        <v>13.82901</v>
       </c>
       <c r="AV7" s="1">
-        <v>992.441000</v>
+        <v>992.44100000000003</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.112000</v>
+        <v>-109.11199999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>49795.516818</v>
+        <v>49795.516817999996</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.832088</v>
+        <v>13.832088000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.814000</v>
+        <v>-124.81399999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>49806.539906</v>
+        <v>49806.539905999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.835150</v>
+        <v>13.835150000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1039.730000</v>
+        <v>1039.73</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.838000</v>
+        <v>-196.83799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>49817.310069</v>
+        <v>49817.310068999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.838142</v>
+        <v>13.838141999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.475000</v>
+        <v>-313.47500000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>49828.652549</v>
+        <v>49828.652548999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>13.841292</v>
+        <v>13.841291999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-497.163000</v>
+        <v>-497.16300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>49840.334822</v>
+        <v>49840.334821999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>13.844537</v>
+        <v>13.844537000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.540000</v>
+        <v>1336.54</v>
       </c>
       <c r="BV7" s="1">
-        <v>-698.614000</v>
+        <v>-698.61400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>49851.191257</v>
+        <v>49851.191256999999</v>
       </c>
       <c r="BY7" s="1">
         <v>13.847553</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-913.873000</v>
+        <v>-913.87300000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>49862.674633</v>
+        <v>49862.674633000002</v>
       </c>
       <c r="CD7" s="1">
         <v>13.850743</v>
       </c>
       <c r="CE7" s="1">
-        <v>1829.580000</v>
+        <v>1829.58</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1425.400000</v>
+        <v>-1425.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>49690.281133</v>
+        <v>49690.281132999997</v>
       </c>
       <c r="B8" s="1">
         <v>13.802856</v>
       </c>
       <c r="C8" s="1">
-        <v>901.348000</v>
+        <v>901.34799999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.868000</v>
+        <v>-198.86799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>49700.324127</v>
       </c>
       <c r="G8" s="1">
-        <v>13.805646</v>
+        <v>13.805645999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>918.753000</v>
+        <v>918.75300000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.371000</v>
+        <v>-168.37100000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>49710.471282</v>
+        <v>49710.471281999999</v>
       </c>
       <c r="L8" s="1">
-        <v>13.808464</v>
+        <v>13.808464000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>942.128000</v>
+        <v>942.12800000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.620000</v>
+        <v>-119.62</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>49720.683444</v>
+        <v>49720.683444000002</v>
       </c>
       <c r="Q8" s="1">
         <v>13.811301</v>
       </c>
       <c r="R8" s="1">
-        <v>948.793000</v>
+        <v>948.79300000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.415000</v>
+        <v>-103.41500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>49731.200336</v>
+        <v>49731.200336000002</v>
       </c>
       <c r="V8" s="1">
-        <v>13.814222</v>
+        <v>13.814221999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>955.477000</v>
+        <v>955.47699999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.452400</v>
+        <v>-88.452399999999997</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>49741.990088</v>
+        <v>49741.990087999999</v>
       </c>
       <c r="AA8" s="1">
         <v>13.817219</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.565000</v>
+        <v>962.56500000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.931100</v>
+        <v>-76.931100000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>49752.508715</v>
+        <v>49752.508715000004</v>
       </c>
       <c r="AF8" s="1">
         <v>13.820141</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.262000</v>
+        <v>967.26199999999994</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.833100</v>
+        <v>-74.833100000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>49763.386507</v>
+        <v>49763.386507000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.823163</v>
+        <v>13.823162999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.407000</v>
+        <v>974.40700000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.639000</v>
+        <v>-79.638999999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>49774.100062</v>
+        <v>49774.100061999998</v>
       </c>
       <c r="AP8" s="1">
         <v>13.826139</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.504000</v>
+        <v>982.50400000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.330300</v>
+        <v>-91.330299999999994</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>49784.799264</v>
+        <v>49784.799264000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.829111</v>
+        <v>13.829110999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>992.443000</v>
+        <v>992.44299999999998</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.145000</v>
+        <v>-109.145</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>49795.875920</v>
+        <v>49795.875919999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.832188</v>
       </c>
       <c r="BA8" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.815000</v>
+        <v>-124.815</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>49806.956049</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.835266</v>
+        <v>13.835266000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.831000</v>
+        <v>-196.83099999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>49817.725925</v>
+        <v>49817.725924999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.838257</v>
       </c>
       <c r="BK8" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.449000</v>
+        <v>-313.44900000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>49829.054310</v>
+        <v>49829.05431</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.841404</v>
+        <v>13.841404000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-497.202000</v>
+        <v>-497.202</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>49840.765350</v>
+        <v>49840.765350000001</v>
       </c>
       <c r="BT8" s="1">
         <v>13.844657</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.540000</v>
+        <v>1336.54</v>
       </c>
       <c r="BV8" s="1">
-        <v>-698.595000</v>
+        <v>-698.59500000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>49851.640135</v>
+        <v>49851.640135000001</v>
       </c>
       <c r="BY8" s="1">
         <v>13.847678</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA8" s="1">
-        <v>-913.946000</v>
+        <v>-913.94600000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>49863.214777</v>
+        <v>49863.214777000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.850893</v>
+        <v>13.850892999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1830.390000</v>
+        <v>1830.39</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1423.810000</v>
+        <v>-1423.81</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>49690.623868</v>
+        <v>49690.623868000002</v>
       </c>
       <c r="B9" s="1">
         <v>13.802951</v>
       </c>
       <c r="C9" s="1">
-        <v>901.468000</v>
+        <v>901.46799999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.772000</v>
+        <v>-198.77199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>49700.669664</v>
+        <v>49700.669664000001</v>
       </c>
       <c r="G9" s="1">
         <v>13.805742</v>
       </c>
       <c r="H9" s="1">
-        <v>919.045000</v>
+        <v>919.04499999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.866000</v>
+        <v>-167.86600000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>49710.817489</v>
+        <v>49710.817489000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.808560</v>
+        <v>13.80856</v>
       </c>
       <c r="M9" s="1">
-        <v>942.029000</v>
+        <v>942.029</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.705000</v>
+        <v>-119.705</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>49721.340117</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.811483</v>
+        <v>13.811483000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>948.802000</v>
+        <v>948.80200000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.446000</v>
+        <v>-103.446</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>49731.855797</v>
+        <v>49731.855796999997</v>
       </c>
       <c r="V9" s="1">
         <v>13.814404</v>
       </c>
       <c r="W9" s="1">
-        <v>955.412000</v>
+        <v>955.41200000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.450100</v>
+        <v>-88.450100000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>49742.375447</v>
+        <v>49742.375446999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.817327</v>
+        <v>13.817327000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.497000</v>
+        <v>962.49699999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.887000</v>
+        <v>-76.887</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>49752.890633</v>
+        <v>49752.890633000003</v>
       </c>
       <c r="AF9" s="1">
         <v>13.820247</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.187000</v>
+        <v>967.18700000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.838300</v>
+        <v>-74.838300000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>49763.735163</v>
+        <v>49763.735162999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.823260</v>
+        <v>13.823259999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.398000</v>
+        <v>974.39800000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.641500</v>
+        <v>-79.641499999999994</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>49774.459662</v>
+        <v>49774.459662000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.826239</v>
+        <v>13.826238999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.498000</v>
+        <v>982.49800000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.330800</v>
+        <v>-91.330799999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>49785.162830</v>
+        <v>49785.162830000001</v>
       </c>
       <c r="AU9" s="1">
         <v>13.829212</v>
       </c>
       <c r="AV9" s="1">
-        <v>992.447000</v>
+        <v>992.447</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.130000</v>
+        <v>-109.13</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>49796.299044</v>
+        <v>49796.299043999999</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.832305</v>
       </c>
       <c r="BA9" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.801000</v>
+        <v>-124.801</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>49807.268034</v>
+        <v>49807.268034000001</v>
       </c>
       <c r="BE9" s="1">
         <v>13.835352</v>
       </c>
       <c r="BF9" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>49818.087267</v>
+        <v>49818.087267000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.838358</v>
+        <v>13.838357999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1106.570000</v>
+        <v>1106.57</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.437000</v>
+        <v>-313.43700000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>49829.451641</v>
@@ -2475,61 +2891,61 @@
         <v>13.841514</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-497.162000</v>
+        <v>-497.16199999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>49841.174550</v>
+        <v>49841.174550000003</v>
       </c>
       <c r="BT9" s="1">
         <v>13.844771</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.570000</v>
+        <v>1336.57</v>
       </c>
       <c r="BV9" s="1">
-        <v>-698.632000</v>
+        <v>-698.63199999999995</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>49852.095958</v>
+        <v>49852.095957999998</v>
       </c>
       <c r="BY9" s="1">
         <v>13.847804</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA9" s="1">
-        <v>-913.942000</v>
+        <v>-913.94200000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>49863.754425</v>
+        <v>49863.754424999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.851043</v>
+        <v>13.851043000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1829.100000</v>
+        <v>1829.1</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1424.430000</v>
+        <v>-1424.43</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>49690.966107</v>
       </c>
@@ -2537,315 +2953,315 @@
         <v>13.803046</v>
       </c>
       <c r="C10" s="1">
-        <v>901.525000</v>
+        <v>901.52499999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.753000</v>
+        <v>-198.75299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>49701.012575</v>
+        <v>49701.012575000001</v>
       </c>
       <c r="G10" s="1">
         <v>13.805837</v>
       </c>
       <c r="H10" s="1">
-        <v>918.945000</v>
+        <v>918.94500000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.457000</v>
+        <v>-168.45699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>49711.473697</v>
+        <v>49711.473697000001</v>
       </c>
       <c r="L10" s="1">
         <v>13.808743</v>
       </c>
       <c r="M10" s="1">
-        <v>941.953000</v>
+        <v>941.95299999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.543000</v>
+        <v>-119.54300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>49721.727988</v>
+        <v>49721.727987999999</v>
       </c>
       <c r="Q10" s="1">
         <v>13.811591</v>
       </c>
       <c r="R10" s="1">
-        <v>948.828000</v>
+        <v>948.82799999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.480000</v>
+        <v>-103.48</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>49732.230808</v>
       </c>
       <c r="V10" s="1">
-        <v>13.814509</v>
+        <v>13.814508999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.282000</v>
+        <v>955.28200000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.395800</v>
+        <v>-88.395799999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>49742.721656</v>
+        <v>49742.721656000002</v>
       </c>
       <c r="AA10" s="1">
         <v>13.817423</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.544000</v>
+        <v>962.54399999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.944800</v>
+        <v>-76.944800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>49753.248249</v>
+        <v>49753.248248999997</v>
       </c>
       <c r="AF10" s="1">
         <v>13.820347</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.196000</v>
+        <v>967.19600000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.787600</v>
+        <v>-74.787599999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>49764.082886</v>
+        <v>49764.082885999997</v>
       </c>
       <c r="AK10" s="1">
         <v>13.823356</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.400000</v>
+        <v>974.4</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.648200</v>
+        <v>-79.648200000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>49774.876338</v>
+        <v>49774.876338000002</v>
       </c>
       <c r="AP10" s="1">
         <v>13.826355</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.495000</v>
+        <v>982.495</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.327900</v>
+        <v>-91.3279</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>49785.580493</v>
+        <v>49785.580493000001</v>
       </c>
       <c r="AU10" s="1">
         <v>13.829328</v>
       </c>
       <c r="AV10" s="1">
-        <v>992.451000</v>
+        <v>992.45100000000002</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.141000</v>
+        <v>-109.14100000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>49796.593135</v>
+        <v>49796.593135000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.832387</v>
+        <v>13.832387000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.808000</v>
+        <v>-124.80800000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>49807.624690</v>
+        <v>49807.624689999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.835451</v>
+        <v>13.835451000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1039.710000</v>
+        <v>1039.71</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.852000</v>
+        <v>-196.852</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>49818.460292</v>
+        <v>49818.460292000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.838461</v>
+        <v>13.838461000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1106.600000</v>
+        <v>1106.5999999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.441000</v>
+        <v>-313.44099999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>49829.871719</v>
+        <v>49829.871719000002</v>
       </c>
       <c r="BO10" s="1">
         <v>13.841631</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-497.197000</v>
+        <v>-497.197</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>49841.605076</v>
       </c>
       <c r="BT10" s="1">
-        <v>13.844890</v>
+        <v>13.844889999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.530000</v>
+        <v>1336.53</v>
       </c>
       <c r="BV10" s="1">
-        <v>-698.709000</v>
+        <v>-698.70899999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>49852.545861</v>
+        <v>49852.545860999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.847929</v>
+        <v>13.847929000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.750000</v>
+        <v>1472.75</v>
       </c>
       <c r="CA10" s="1">
-        <v>-913.944000</v>
+        <v>-913.94399999999996</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>49864.293606</v>
+        <v>49864.293605999999</v>
       </c>
       <c r="CD10" s="1">
         <v>13.851193</v>
       </c>
       <c r="CE10" s="1">
-        <v>1830.640000</v>
+        <v>1830.64</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1424.980000</v>
+        <v>-1424.98</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>49691.617850</v>
+        <v>49691.617850000002</v>
       </c>
       <c r="B11" s="1">
         <v>13.803227</v>
       </c>
       <c r="C11" s="1">
-        <v>901.504000</v>
+        <v>901.50400000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.872000</v>
+        <v>-198.87200000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>49701.664813</v>
+        <v>49701.664813000003</v>
       </c>
       <c r="G11" s="1">
         <v>13.806018</v>
       </c>
       <c r="H11" s="1">
-        <v>918.919000</v>
+        <v>918.91899999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.546000</v>
+        <v>-168.54599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>49711.851903</v>
+        <v>49711.851903000002</v>
       </c>
       <c r="L11" s="1">
-        <v>13.808848</v>
+        <v>13.808847999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>941.989000</v>
+        <v>941.98900000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.673000</v>
+        <v>-119.673</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>49722.077170</v>
+        <v>49722.077169999997</v>
       </c>
       <c r="Q11" s="1">
         <v>13.811688</v>
       </c>
       <c r="R11" s="1">
-        <v>948.809000</v>
+        <v>948.80899999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.490000</v>
+        <v>-103.49</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>49732.571526</v>
@@ -2854,677 +3270,677 @@
         <v>13.814603</v>
       </c>
       <c r="W11" s="1">
-        <v>955.476000</v>
+        <v>955.476</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.492900</v>
+        <v>-88.492900000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>49743.073350</v>
+        <v>49743.073349999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.817520</v>
+        <v>13.81752</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.480000</v>
+        <v>962.48</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.852500</v>
+        <v>-76.852500000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>49753.593962</v>
+        <v>49753.593961999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.820443</v>
+        <v>13.820442999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.207000</v>
+        <v>967.20699999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.817700</v>
+        <v>-74.817700000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>49764.501514</v>
+        <v>49764.501514000003</v>
       </c>
       <c r="AK11" s="1">
         <v>13.823473</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.656100</v>
+        <v>-79.656099999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>49775.183356</v>
+        <v>49775.183356000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.826440</v>
+        <v>13.82644</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.545000</v>
+        <v>982.54499999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.338800</v>
+        <v>-91.338800000000006</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>49785.894926</v>
+        <v>49785.894926000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>13.829415</v>
+        <v>13.829414999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>992.454000</v>
+        <v>992.45399999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.144000</v>
+        <v>-109.14400000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>49796.950282</v>
+        <v>49796.950281999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.832486</v>
+        <v>13.832485999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.816000</v>
+        <v>-124.816</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>49807.986736</v>
+        <v>49807.986735999999</v>
       </c>
       <c r="BE11" s="1">
         <v>13.835552</v>
       </c>
       <c r="BF11" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.834000</v>
+        <v>-196.834</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>49818.835266</v>
+        <v>49818.835266000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>13.838565</v>
+        <v>13.838564999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.448000</v>
+        <v>-313.44799999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>49830.689654</v>
+        <v>49830.689654000002</v>
       </c>
       <c r="BO11" s="1">
         <v>13.841858</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-497.189000</v>
+        <v>-497.18900000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>49842.032169</v>
+        <v>49842.032168999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.845009</v>
+        <v>13.845008999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="BV11" s="1">
-        <v>-698.630000</v>
+        <v>-698.63</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>49852.967962</v>
+        <v>49852.967962000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.848047</v>
+        <v>13.848046999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA11" s="1">
-        <v>-914.035000</v>
+        <v>-914.03499999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>49864.836731</v>
+        <v>49864.836731000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.851344</v>
+        <v>13.851343999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1829.820000</v>
+        <v>1829.82</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1423.820000</v>
+        <v>-1423.82</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>49691.995803</v>
+        <v>49691.995802999998</v>
       </c>
       <c r="B12" s="1">
-        <v>13.803332</v>
+        <v>13.803331999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>901.305000</v>
+        <v>901.30499999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.800000</v>
+        <v>-198.8</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>49702.047230</v>
+        <v>49702.047229999996</v>
       </c>
       <c r="G12" s="1">
-        <v>13.806124</v>
+        <v>13.806124000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>918.919000</v>
+        <v>918.91899999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.437000</v>
+        <v>-168.43700000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>49712.199344</v>
+        <v>49712.199344000001</v>
       </c>
       <c r="L12" s="1">
         <v>13.808944</v>
       </c>
       <c r="M12" s="1">
-        <v>941.969000</v>
+        <v>941.96900000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.653000</v>
+        <v>-119.65300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>49722.426386</v>
+        <v>49722.426385999999</v>
       </c>
       <c r="Q12" s="1">
         <v>13.811785</v>
       </c>
       <c r="R12" s="1">
-        <v>948.797000</v>
+        <v>948.79700000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.469000</v>
+        <v>-103.46899999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>49732.914296</v>
+        <v>49732.914296000003</v>
       </c>
       <c r="V12" s="1">
         <v>13.814698</v>
       </c>
       <c r="W12" s="1">
-        <v>955.375000</v>
+        <v>955.375</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.472700</v>
+        <v>-88.472700000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>49743.505829</v>
+        <v>49743.505829000002</v>
       </c>
       <c r="AA12" s="1">
         <v>13.817641</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.605000</v>
+        <v>962.60500000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.889900</v>
+        <v>-76.889899999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>49754.278937</v>
+        <v>49754.278937000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.820633</v>
+        <v>13.820633000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.189000</v>
+        <v>967.18899999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.827600</v>
+        <v>-74.827600000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>49764.797097</v>
+        <v>49764.797097000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.823555</v>
+        <v>13.823555000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.405000</v>
+        <v>974.40499999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.644300</v>
+        <v>-79.644300000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>49775.542923</v>
+        <v>49775.542923000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.826540</v>
+        <v>13.82654</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.534000</v>
+        <v>982.53399999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.336100</v>
+        <v>-91.336100000000002</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>49786.261965</v>
+        <v>49786.261964999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.829517</v>
+        <v>13.829516999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>992.450000</v>
+        <v>992.45</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.138000</v>
+        <v>-109.13800000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>49797.310352</v>
       </c>
       <c r="AZ12" s="1">
-        <v>13.832586</v>
+        <v>13.832585999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.819000</v>
+        <v>-124.819</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>49808.709989</v>
+        <v>49808.709989000003</v>
       </c>
       <c r="BE12" s="1">
         <v>13.835753</v>
       </c>
       <c r="BF12" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.814000</v>
+        <v>-196.81399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>49819.613457</v>
+        <v>49819.613456999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.838782</v>
       </c>
       <c r="BK12" s="1">
-        <v>1106.620000</v>
+        <v>1106.6199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.451000</v>
+        <v>-313.45100000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>49831.108026</v>
+        <v>49831.108026000002</v>
       </c>
       <c r="BO12" s="1">
         <v>13.841974</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-497.194000</v>
+        <v>-497.19400000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>49842.444804</v>
+        <v>49842.444803999999</v>
       </c>
       <c r="BT12" s="1">
         <v>13.845124</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.480000</v>
+        <v>1336.48</v>
       </c>
       <c r="BV12" s="1">
-        <v>-698.651000</v>
+        <v>-698.65099999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>49853.389028</v>
+        <v>49853.389027999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.848164</v>
+        <v>13.848164000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.770000</v>
+        <v>1472.77</v>
       </c>
       <c r="CA12" s="1">
-        <v>-914.125000</v>
+        <v>-914.125</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>49865.680918</v>
+        <v>49865.680917999998</v>
       </c>
       <c r="CD12" s="1">
         <v>13.851578</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.700000</v>
+        <v>1830.7</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1424.630000</v>
+        <v>-1424.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>49692.331625</v>
+        <v>49692.331624999999</v>
       </c>
       <c r="B13" s="1">
-        <v>13.803425</v>
+        <v>13.803425000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>901.653000</v>
+        <v>901.65300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.772000</v>
+        <v>-198.77199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>49702.391948</v>
+        <v>49702.391947999997</v>
       </c>
       <c r="G13" s="1">
-        <v>13.806220</v>
+        <v>13.80622</v>
       </c>
       <c r="H13" s="1">
-        <v>918.548000</v>
+        <v>918.548</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.304000</v>
+        <v>-168.304</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>49712.545087</v>
+        <v>49712.545086999999</v>
       </c>
       <c r="L13" s="1">
-        <v>13.809040</v>
+        <v>13.80904</v>
       </c>
       <c r="M13" s="1">
-        <v>942.114000</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.512000</v>
+        <v>-119.512</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>49722.845474</v>
+        <v>49722.845474000002</v>
       </c>
       <c r="Q13" s="1">
         <v>13.811902</v>
       </c>
       <c r="R13" s="1">
-        <v>948.834000</v>
+        <v>948.83399999999995</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>49733.327924</v>
+        <v>49733.327923999997</v>
       </c>
       <c r="V13" s="1">
-        <v>13.814813</v>
+        <v>13.814812999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.320000</v>
+        <v>955.32</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.471000</v>
+        <v>-88.471000000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>49743.767754</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.817713</v>
+        <v>13.817712999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.527000</v>
+        <v>962.52700000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.919400</v>
+        <v>-76.919399999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>49754.627623</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.820730</v>
+        <v>13.820729999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.225000</v>
+        <v>967.22500000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.810700</v>
+        <v>-74.810699999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>49765.147274</v>
+        <v>49765.147274000003</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.823652</v>
+        <v>13.823651999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.404000</v>
+        <v>974.404</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.656300</v>
+        <v>-79.656300000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>49775.904010</v>
+        <v>49775.904009999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.826640</v>
+        <v>13.826639999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.531000</v>
+        <v>982.53099999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.347700</v>
+        <v>-91.347700000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>49786.625566</v>
+        <v>49786.625566000002</v>
       </c>
       <c r="AU13" s="1">
         <v>13.829618</v>
       </c>
       <c r="AV13" s="1">
-        <v>992.451000</v>
+        <v>992.45100000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.152000</v>
+        <v>-109.152</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>49798.032030</v>
+        <v>49798.032030000002</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.832787</v>
       </c>
       <c r="BA13" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.824000</v>
+        <v>-124.824</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>49809.096319</v>
+        <v>49809.096318999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.835860</v>
+        <v>13.83586</v>
       </c>
       <c r="BF13" s="1">
-        <v>1039.710000</v>
+        <v>1039.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.825000</v>
+        <v>-196.82499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>49819.987937</v>
+        <v>49819.987936999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.838886</v>
       </c>
       <c r="BK13" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.440000</v>
+        <v>-313.44</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>49831.504076</v>
+        <v>49831.504075999997</v>
       </c>
       <c r="BO13" s="1">
         <v>13.842084</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-497.185000</v>
+        <v>-497.185</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>49843.179410</v>
+        <v>49843.179409999997</v>
       </c>
       <c r="BT13" s="1">
         <v>13.845328</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.510000</v>
+        <v>1336.51</v>
       </c>
       <c r="BV13" s="1">
-        <v>-698.661000</v>
+        <v>-698.66099999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>49854.117155</v>
@@ -3533,392 +3949,392 @@
         <v>13.848366</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA13" s="1">
-        <v>-913.948000</v>
+        <v>-913.94799999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>49865.914003</v>
+        <v>49865.914002999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.851643</v>
+        <v>13.851642999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1830.590000</v>
+        <v>1830.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1424.700000</v>
+        <v>-1424.7</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>49692.674825</v>
+        <v>49692.674825000002</v>
       </c>
       <c r="B14" s="1">
         <v>13.803521</v>
       </c>
       <c r="C14" s="1">
-        <v>901.468000</v>
+        <v>901.46799999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.833000</v>
+        <v>-198.833</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>49702.738684</v>
+        <v>49702.738684000004</v>
       </c>
       <c r="G14" s="1">
-        <v>13.806316</v>
+        <v>13.806316000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>918.833000</v>
+        <v>918.83299999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.226000</v>
+        <v>-168.226</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>49712.969135</v>
+        <v>49712.969134999999</v>
       </c>
       <c r="L14" s="1">
         <v>13.809158</v>
       </c>
       <c r="M14" s="1">
-        <v>942.015000</v>
+        <v>942.01499999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.602000</v>
+        <v>-119.602</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>49723.123766</v>
+        <v>49723.123765999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.811979</v>
+        <v>13.811978999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.809000</v>
+        <v>948.80899999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.424000</v>
+        <v>-103.42400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>49733.627508</v>
+        <v>49733.627507999998</v>
       </c>
       <c r="V14" s="1">
         <v>13.814897</v>
       </c>
       <c r="W14" s="1">
-        <v>955.292000</v>
+        <v>955.29200000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.481800</v>
+        <v>-88.481800000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>49744.116908</v>
+        <v>49744.116908000004</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.817810</v>
+        <v>13.81781</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.417000</v>
+        <v>962.41700000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.941400</v>
+        <v>-76.941400000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>49754.969864</v>
+        <v>49754.969863999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.820825</v>
+        <v>13.820824999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.204000</v>
+        <v>967.20399999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.799300</v>
+        <v>-74.799300000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>49765.493978</v>
+        <v>49765.493977999999</v>
       </c>
       <c r="AK14" s="1">
         <v>13.823748</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.626000</v>
+        <v>-79.626000000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>49776.618778</v>
+        <v>49776.618777999996</v>
       </c>
       <c r="AP14" s="1">
         <v>13.826839</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.518000</v>
+        <v>982.51800000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.307100</v>
+        <v>-91.307100000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>49787.351191</v>
+        <v>49787.351191000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.829820</v>
+        <v>13.82982</v>
       </c>
       <c r="AV14" s="1">
-        <v>992.440000</v>
+        <v>992.44</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.117000</v>
+        <v>-109.117</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>49798.407501</v>
+        <v>49798.407501000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.832891</v>
       </c>
       <c r="BA14" s="1">
-        <v>1000.750000</v>
+        <v>1000.75</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.827000</v>
+        <v>-124.827</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>49809.458862</v>
+        <v>49809.458861999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.835961</v>
+        <v>13.835960999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.858000</v>
+        <v>-196.858</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>49820.361920</v>
+        <v>49820.361920000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>13.838989</v>
       </c>
       <c r="BK14" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.455000</v>
+        <v>-313.45499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>49832.236640</v>
+        <v>49832.236640000003</v>
       </c>
       <c r="BO14" s="1">
         <v>13.842288</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-497.207000</v>
+        <v>-497.20699999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>49843.301393</v>
+        <v>49843.301393000002</v>
       </c>
       <c r="BT14" s="1">
         <v>13.845361</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV14" s="1">
-        <v>-698.708000</v>
+        <v>-698.70799999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>49854.231733</v>
+        <v>49854.231733000001</v>
       </c>
       <c r="BY14" s="1">
         <v>13.848398</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA14" s="1">
-        <v>-913.903000</v>
+        <v>-913.90300000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>49866.433811</v>
+        <v>49866.433811000003</v>
       </c>
       <c r="CD14" s="1">
         <v>13.851787</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.000000</v>
+        <v>1830</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1423.770000</v>
+        <v>-1423.77</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>49693.100424</v>
+        <v>49693.100423999997</v>
       </c>
       <c r="B15" s="1">
         <v>13.803639</v>
       </c>
       <c r="C15" s="1">
-        <v>901.510000</v>
+        <v>901.51</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.872000</v>
+        <v>-198.87200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>49703.220278</v>
+        <v>49703.220278000001</v>
       </c>
       <c r="G15" s="1">
-        <v>13.806450</v>
+        <v>13.80645</v>
       </c>
       <c r="H15" s="1">
-        <v>918.995000</v>
+        <v>918.995</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.143000</v>
+        <v>-168.143</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>49713.249880</v>
+        <v>49713.249880000003</v>
       </c>
       <c r="L15" s="1">
         <v>13.809236</v>
       </c>
       <c r="M15" s="1">
-        <v>942.101000</v>
+        <v>942.101</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.618000</v>
+        <v>-119.61799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>49723.472417</v>
+        <v>49723.472416999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.812076</v>
+        <v>13.812075999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.822000</v>
+        <v>948.822</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.444000</v>
+        <v>-103.444</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>49733.972723</v>
+        <v>49733.972722999999</v>
       </c>
       <c r="V15" s="1">
         <v>13.814992</v>
       </c>
       <c r="W15" s="1">
-        <v>955.373000</v>
+        <v>955.37300000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.518800</v>
+        <v>-88.518799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>49744.466580</v>
+        <v>49744.46658</v>
       </c>
       <c r="AA15" s="1">
         <v>13.817907</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.442000</v>
+        <v>962.44200000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.937200</v>
+        <v>-76.937200000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>49755.653845</v>
+        <v>49755.653845000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.821015</v>
+        <v>13.821014999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.197000</v>
+        <v>967.197</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.809400</v>
+        <v>-74.809399999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>49766.193368</v>
@@ -3927,240 +4343,240 @@
         <v>13.823943</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.411000</v>
+        <v>974.41099999999994</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.645500</v>
+        <v>-79.645499999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>49776.984297</v>
+        <v>49776.984297000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.826940</v>
+        <v>13.82694</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.545000</v>
+        <v>982.54499999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.339600</v>
+        <v>-91.339600000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>49787.740539</v>
+        <v>49787.740538999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.829928</v>
+        <v>13.829928000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>992.427000</v>
+        <v>992.42700000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.131000</v>
+        <v>-109.131</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>49798.797393</v>
+        <v>49798.797393000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.832999</v>
+        <v>13.832998999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.799000</v>
+        <v>-124.79900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>49810.125485</v>
+        <v>49810.125484999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.836146</v>
+        <v>13.836145999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.829000</v>
+        <v>-196.82900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>49821.098975</v>
+        <v>49821.098975000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.839194</v>
+        <v>13.839194000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.461000</v>
+        <v>-313.46100000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>49832.349265</v>
+        <v>49832.349264999997</v>
       </c>
       <c r="BO15" s="1">
         <v>13.842319</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.900000</v>
+        <v>1214.9000000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-497.228000</v>
+        <v>-497.22800000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>49843.715057</v>
+        <v>49843.715057000001</v>
       </c>
       <c r="BT15" s="1">
         <v>13.845476</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.420000</v>
+        <v>1336.42</v>
       </c>
       <c r="BV15" s="1">
-        <v>-698.699000</v>
+        <v>-698.69899999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>49854.663252</v>
+        <v>49854.663251999998</v>
       </c>
       <c r="BY15" s="1">
         <v>13.848518</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA15" s="1">
-        <v>-914.029000</v>
+        <v>-914.029</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>49866.952164</v>
+        <v>49866.952164000002</v>
       </c>
       <c r="CD15" s="1">
         <v>13.851931</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.980000</v>
+        <v>1828.98</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1424.610000</v>
+        <v>-1424.61</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>49693.375177</v>
+        <v>49693.375177000002</v>
       </c>
       <c r="B16" s="1">
         <v>13.803715</v>
       </c>
       <c r="C16" s="1">
-        <v>901.407000</v>
+        <v>901.40700000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.883000</v>
+        <v>-198.88300000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>49703.456362</v>
+        <v>49703.456361999997</v>
       </c>
       <c r="G16" s="1">
         <v>13.806516</v>
       </c>
       <c r="H16" s="1">
-        <v>918.980000</v>
+        <v>918.98</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.185000</v>
+        <v>-168.185</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>49713.594589</v>
       </c>
       <c r="L16" s="1">
-        <v>13.809332</v>
+        <v>13.809331999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>942.148000</v>
+        <v>942.14800000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.668000</v>
+        <v>-119.66800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>49723.824607</v>
+        <v>49723.824607000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.812174</v>
+        <v>13.812174000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>948.795000</v>
+        <v>948.79499999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.468000</v>
+        <v>-103.468</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>49734.317442</v>
       </c>
       <c r="V16" s="1">
-        <v>13.815088</v>
+        <v>13.815087999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>955.384000</v>
+        <v>955.38400000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.603700</v>
+        <v>-88.603700000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>49745.163459</v>
+        <v>49745.163459000003</v>
       </c>
       <c r="AA16" s="1">
         <v>13.818101</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.505000</v>
+        <v>962.505</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.928800</v>
+        <v>-76.928799999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>49755.997937</v>
@@ -4169,43 +4585,43 @@
         <v>13.821111</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.194000</v>
+        <v>967.19399999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.799400</v>
+        <v>-74.799400000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>49766.539048</v>
+        <v>49766.539047999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.824039</v>
+        <v>13.824039000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.412000</v>
+        <v>974.41200000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.618200</v>
+        <v>-79.618200000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>49777.341913</v>
+        <v>49777.341912999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.827039</v>
+        <v>13.827038999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.536000</v>
+        <v>982.53599999999994</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.350300</v>
+        <v>-91.350300000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>49788.411774</v>
@@ -4214,437 +4630,437 @@
         <v>13.830114</v>
       </c>
       <c r="AV16" s="1">
-        <v>992.433000</v>
+        <v>992.43299999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.151000</v>
+        <v>-109.151</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>49799.460011</v>
+        <v>49799.460011000003</v>
       </c>
       <c r="AZ16" s="1">
         <v>13.833183</v>
       </c>
       <c r="BA16" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.824000</v>
+        <v>-124.824</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>49810.579327</v>
+        <v>49810.579326999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.836272</v>
+        <v>13.836271999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.828000</v>
+        <v>-196.828</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>49821.521590</v>
+        <v>49821.521589999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.839312</v>
       </c>
       <c r="BK16" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.445000</v>
+        <v>-313.44499999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>49832.743087</v>
+        <v>49832.743087000003</v>
       </c>
       <c r="BO16" s="1">
-        <v>13.842429</v>
+        <v>13.842428999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-497.212000</v>
+        <v>-497.21199999999999</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>49844.148065</v>
+        <v>49844.148065000001</v>
       </c>
       <c r="BT16" s="1">
         <v>13.845597</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.440000</v>
+        <v>1336.44</v>
       </c>
       <c r="BV16" s="1">
-        <v>-698.750000</v>
+        <v>-698.75</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>49855.286265</v>
+        <v>49855.286265000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.848691</v>
+        <v>13.848691000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.750000</v>
+        <v>1472.75</v>
       </c>
       <c r="CA16" s="1">
-        <v>-914.078000</v>
+        <v>-914.07799999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>49867.468997</v>
+        <v>49867.468997000004</v>
       </c>
       <c r="CD16" s="1">
-        <v>13.852075</v>
+        <v>13.852074999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.430000</v>
+        <v>1830.43</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1425.600000</v>
+        <v>-1425.6</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>49693.715929</v>
+        <v>49693.715928999998</v>
       </c>
       <c r="B17" s="1">
-        <v>13.803810</v>
+        <v>13.80381</v>
       </c>
       <c r="C17" s="1">
-        <v>901.484000</v>
+        <v>901.48400000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.769000</v>
+        <v>-198.76900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>49703.800091</v>
+        <v>49703.800090999997</v>
       </c>
       <c r="G17" s="1">
         <v>13.806611</v>
       </c>
       <c r="H17" s="1">
-        <v>919.003000</v>
+        <v>919.00300000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.024000</v>
+        <v>-168.024</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>49713.941822</v>
+        <v>49713.941822000001</v>
       </c>
       <c r="L17" s="1">
         <v>13.809428</v>
       </c>
       <c r="M17" s="1">
-        <v>942.062000</v>
+        <v>942.06200000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.628000</v>
+        <v>-119.628</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>49724.517527</v>
+        <v>49724.517527000004</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.812366</v>
+        <v>13.812366000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>948.833000</v>
+        <v>948.83299999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.488000</v>
+        <v>-103.488</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>49735.002418</v>
+        <v>49735.002417999996</v>
       </c>
       <c r="V17" s="1">
-        <v>13.815278</v>
+        <v>13.815277999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>955.292000</v>
+        <v>955.29200000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.570000</v>
+        <v>-88.57</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>49745.512146</v>
+        <v>49745.512146000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.818198</v>
+        <v>13.818198000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.461000</v>
+        <v>962.46100000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.965100</v>
+        <v>-76.965100000000007</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>49756.341832</v>
+        <v>49756.341831999998</v>
       </c>
       <c r="AF17" s="1">
         <v>13.821206</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.249000</v>
+        <v>967.24900000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.769400</v>
+        <v>-74.769400000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>49766.886287</v>
+        <v>49766.886287000001</v>
       </c>
       <c r="AK17" s="1">
         <v>13.824135</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.413000</v>
+        <v>974.41300000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.645100</v>
+        <v>-79.645099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>49778.008073</v>
+        <v>49778.008072999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.827224</v>
+        <v>13.827223999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.521000</v>
+        <v>982.52099999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.337300</v>
+        <v>-91.337299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>49788.867483</v>
+        <v>49788.867483000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.830241</v>
+        <v>13.830240999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>992.448000</v>
+        <v>992.44799999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.145000</v>
+        <v>-109.145</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>49799.871195</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.833298</v>
+        <v>13.833297999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>49810.936977</v>
+        <v>49810.936976999998</v>
       </c>
       <c r="BE17" s="1">
         <v>13.836371</v>
       </c>
       <c r="BF17" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.835000</v>
+        <v>-196.83500000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>49821.910430</v>
+        <v>49821.910430000004</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.839420</v>
+        <v>13.83942</v>
       </c>
       <c r="BK17" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.455000</v>
+        <v>-313.45499999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>49833.169614</v>
+        <v>49833.169613999999</v>
       </c>
       <c r="BO17" s="1">
         <v>13.842547</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-497.224000</v>
+        <v>-497.22399999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>49844.575152</v>
+        <v>49844.575151999998</v>
       </c>
       <c r="BT17" s="1">
         <v>13.845715</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV17" s="1">
-        <v>-698.741000</v>
+        <v>-698.74099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>49855.507970</v>
+        <v>49855.507969999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.848752</v>
+        <v>13.848751999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="CA17" s="1">
-        <v>-913.998000</v>
+        <v>-913.99800000000005</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>49867.987779</v>
+        <v>49867.987779000003</v>
       </c>
       <c r="CD17" s="1">
         <v>13.852219</v>
       </c>
       <c r="CE17" s="1">
-        <v>1829.920000</v>
+        <v>1829.92</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1425.540000</v>
+        <v>-1425.54</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>49694.059655</v>
+        <v>49694.059654999997</v>
       </c>
       <c r="B18" s="1">
         <v>13.803905</v>
       </c>
       <c r="C18" s="1">
-        <v>901.341000</v>
+        <v>901.34100000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.816000</v>
+        <v>-198.816</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>49704.485838</v>
+        <v>49704.485838000001</v>
       </c>
       <c r="G18" s="1">
-        <v>13.806802</v>
+        <v>13.806801999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.893000</v>
+        <v>918.89300000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.371000</v>
+        <v>-168.37100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>49714.632748</v>
+        <v>49714.632748000004</v>
       </c>
       <c r="L18" s="1">
-        <v>13.809620</v>
+        <v>13.809620000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.073000</v>
+        <v>942.07299999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.581000</v>
+        <v>-119.581</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>49724.868190</v>
+        <v>49724.868190000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.812463</v>
+        <v>13.812462999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.756000</v>
+        <v>948.75599999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.444000</v>
+        <v>-103.444</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>49735.347168</v>
@@ -4653,148 +5069,148 @@
         <v>13.815374</v>
       </c>
       <c r="W18" s="1">
-        <v>955.310000</v>
+        <v>955.31</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.444300</v>
+        <v>-88.444299999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>49745.861828</v>
+        <v>49745.861828000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.818295</v>
+        <v>13.818295000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.524000</v>
+        <v>962.524</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.933300</v>
+        <v>-76.933300000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>49756.991094</v>
+        <v>49756.991093999997</v>
       </c>
       <c r="AF18" s="1">
         <v>13.821386</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.234000</v>
+        <v>967.23400000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.833100</v>
+        <v>-74.833100000000002</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>49767.552870</v>
+        <v>49767.55287</v>
       </c>
       <c r="AK18" s="1">
-        <v>13.824320</v>
+        <v>13.82432</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.423000</v>
+        <v>974.423</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.634400</v>
+        <v>-79.634399999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>49778.454439</v>
+        <v>49778.454439000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.827348</v>
+        <v>13.827348000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.551000</v>
+        <v>982.55100000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.320800</v>
+        <v>-91.320800000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>49789.232538</v>
+        <v>49789.232537999997</v>
       </c>
       <c r="AU18" s="1">
         <v>13.830342</v>
       </c>
       <c r="AV18" s="1">
-        <v>992.427000</v>
+        <v>992.42700000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.150000</v>
+        <v>-109.15</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>49800.257084</v>
+        <v>49800.257083999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.833405</v>
+        <v>13.833405000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.812000</v>
+        <v>-124.812</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>49811.294096</v>
+        <v>49811.294095999998</v>
       </c>
       <c r="BE18" s="1">
         <v>13.836471</v>
       </c>
       <c r="BF18" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.850000</v>
+        <v>-196.85</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>49822.332066</v>
+        <v>49822.332066000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.839537</v>
       </c>
       <c r="BK18" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.465000</v>
+        <v>-313.46499999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>49833.599150</v>
+        <v>49833.599150000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.842666</v>
+        <v>13.842665999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-497.253000</v>
+        <v>-497.25299999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>49844.984848</v>
@@ -4803,13 +5219,13 @@
         <v>13.845829</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="BV18" s="1">
-        <v>-698.779000</v>
+        <v>-698.779</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>49855.938467</v>
@@ -4818,180 +5234,180 @@
         <v>13.848872</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA18" s="1">
-        <v>-914.010000</v>
+        <v>-914.01</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>49868.538080</v>
+        <v>49868.538079999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.852372</v>
+        <v>13.852372000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1829.410000</v>
+        <v>1829.41</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1425.060000</v>
+        <v>-1425.06</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>49694.741159</v>
+        <v>49694.741158999997</v>
       </c>
       <c r="B19" s="1">
         <v>13.804095</v>
       </c>
       <c r="C19" s="1">
-        <v>901.454000</v>
+        <v>901.45399999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.765000</v>
+        <v>-198.76499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>49704.830282</v>
+        <v>49704.830282000003</v>
       </c>
       <c r="G19" s="1">
-        <v>13.806897</v>
+        <v>13.806896999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>918.969000</v>
+        <v>918.96900000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.435000</v>
+        <v>-168.435</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>49714.977931</v>
+        <v>49714.977931000001</v>
       </c>
       <c r="L19" s="1">
         <v>13.809716</v>
       </c>
       <c r="M19" s="1">
-        <v>941.958000</v>
+        <v>941.95799999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.668000</v>
+        <v>-119.66800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>49725.217551</v>
+        <v>49725.217551000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.812560</v>
+        <v>13.81256</v>
       </c>
       <c r="R19" s="1">
-        <v>948.790000</v>
+        <v>948.79</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.389000</v>
+        <v>-103.389</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>49735.690368</v>
+        <v>49735.690368000003</v>
       </c>
       <c r="V19" s="1">
-        <v>13.815470</v>
+        <v>13.815469999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>955.291000</v>
+        <v>955.29100000000005</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.470300</v>
+        <v>-88.470299999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>49746.513570</v>
+        <v>49746.513570000003</v>
       </c>
       <c r="AA19" s="1">
         <v>13.818476</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.590000</v>
+        <v>962.59</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.956100</v>
+        <v>-76.956100000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>49757.374003</v>
+        <v>49757.374002999997</v>
       </c>
       <c r="AF19" s="1">
         <v>13.821493</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.214000</v>
+        <v>967.21400000000006</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.783700</v>
+        <v>-74.783699999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>49767.930821</v>
+        <v>49767.930821000002</v>
       </c>
       <c r="AK19" s="1">
         <v>13.824425</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.417000</v>
+        <v>974.41700000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.655200</v>
+        <v>-79.655199999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>49778.814567</v>
+        <v>49778.814567000001</v>
       </c>
       <c r="AP19" s="1">
         <v>13.827448</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.528000</v>
+        <v>982.52800000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.321200</v>
+        <v>-91.321200000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>49789.588136</v>
+        <v>49789.588135999998</v>
       </c>
       <c r="AU19" s="1">
         <v>13.830441</v>
       </c>
       <c r="AV19" s="1">
-        <v>992.418000</v>
+        <v>992.41800000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.142000</v>
+        <v>-109.142</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>49800.616187</v>
@@ -5000,165 +5416,165 @@
         <v>13.833504</v>
       </c>
       <c r="BA19" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.825000</v>
+        <v>-124.825</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>49811.719629</v>
+        <v>49811.719628999999</v>
       </c>
       <c r="BE19" s="1">
         <v>13.836589</v>
       </c>
       <c r="BF19" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.834000</v>
+        <v>-196.834</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>49822.661901</v>
+        <v>49822.661900999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.839628</v>
+        <v>13.839627999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.458000</v>
+        <v>-313.45800000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>49833.986557</v>
+        <v>49833.986556999997</v>
       </c>
       <c r="BO19" s="1">
         <v>13.842774</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-497.224000</v>
+        <v>-497.22399999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>49845.414351</v>
+        <v>49845.414350999999</v>
       </c>
       <c r="BT19" s="1">
         <v>13.845948</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.400000</v>
+        <v>1336.4</v>
       </c>
       <c r="BV19" s="1">
-        <v>-698.772000</v>
+        <v>-698.77200000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>49856.357621</v>
+        <v>49856.357621000003</v>
       </c>
       <c r="BY19" s="1">
         <v>13.848988</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.840000</v>
+        <v>1472.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-913.969000</v>
+        <v>-913.96900000000005</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>49869.068064</v>
+        <v>49869.068063999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.852519</v>
+        <v>13.852518999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.640000</v>
+        <v>1830.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1425.000000</v>
+        <v>-1425</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>49695.085877</v>
+        <v>49695.085876999998</v>
       </c>
       <c r="B20" s="1">
-        <v>13.804191</v>
+        <v>13.804190999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>901.509000</v>
+        <v>901.50900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.823000</v>
+        <v>-198.82300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>49705.179000</v>
+        <v>49705.178999999996</v>
       </c>
       <c r="G20" s="1">
         <v>13.806994</v>
       </c>
       <c r="H20" s="1">
-        <v>918.942000</v>
+        <v>918.94200000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.842000</v>
+        <v>-167.84200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>49715.327610</v>
+        <v>49715.32761</v>
       </c>
       <c r="L20" s="1">
         <v>13.809813</v>
       </c>
       <c r="M20" s="1">
-        <v>942.042000</v>
+        <v>942.04200000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.686000</v>
+        <v>-119.68600000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>49725.882020</v>
+        <v>49725.882019999997</v>
       </c>
       <c r="Q20" s="1">
         <v>13.812745</v>
       </c>
       <c r="R20" s="1">
-        <v>948.842000</v>
+        <v>948.84199999999998</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.436000</v>
+        <v>-103.43600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>49736.356494</v>
@@ -5167,103 +5583,103 @@
         <v>13.815655</v>
       </c>
       <c r="W20" s="1">
-        <v>955.262000</v>
+        <v>955.26199999999994</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.387000</v>
+        <v>-88.387</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>49746.907889</v>
+        <v>49746.907889000002</v>
       </c>
       <c r="AA20" s="1">
         <v>13.818586</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.507000</v>
+        <v>962.50699999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.945400</v>
+        <v>-76.945400000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>49757.716212</v>
+        <v>49757.716211999999</v>
       </c>
       <c r="AF20" s="1">
         <v>13.821588</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.188000</v>
+        <v>967.18799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.802900</v>
+        <v>-74.802899999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>49768.281527</v>
+        <v>49768.281526999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.824523</v>
+        <v>13.824522999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.400000</v>
+        <v>974.4</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.641100</v>
+        <v>-79.641099999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>49779.177142</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.827549</v>
+        <v>13.827548999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.527000</v>
+        <v>982.52700000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.329100</v>
+        <v>-91.329099999999997</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>49790.024620</v>
+        <v>49790.024619999997</v>
       </c>
       <c r="AU20" s="1">
         <v>13.830562</v>
       </c>
       <c r="AV20" s="1">
-        <v>992.453000</v>
+        <v>992.45299999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.140000</v>
+        <v>-109.14</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>49801.032331</v>
+        <v>49801.032331000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.833620</v>
+        <v>13.83362</v>
       </c>
       <c r="BA20" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.807000</v>
+        <v>-124.807</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>49812.020204</v>
@@ -5272,73 +5688,73 @@
         <v>13.836672</v>
       </c>
       <c r="BF20" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.857000</v>
+        <v>-196.857</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>49823.038860</v>
+        <v>49823.038860000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.839733</v>
+        <v>13.839733000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.451000</v>
+        <v>-313.45100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>49834.385837</v>
+        <v>49834.385837000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.842885</v>
+        <v>13.842885000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-497.225000</v>
+        <v>-497.22500000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>49845.843390</v>
+        <v>49845.843390000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.846068</v>
+        <v>13.846068000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.390000</v>
+        <v>1336.39</v>
       </c>
       <c r="BV20" s="1">
-        <v>-698.797000</v>
+        <v>-698.79700000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>49856.779221</v>
+        <v>49856.779220999997</v>
       </c>
       <c r="BY20" s="1">
         <v>13.849105</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.850000</v>
+        <v>1472.85</v>
       </c>
       <c r="CA20" s="1">
-        <v>-914.004000</v>
+        <v>-914.00400000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>49869.584896</v>
@@ -5347,135 +5763,135 @@
         <v>13.852662</v>
       </c>
       <c r="CE20" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1425.400000</v>
+        <v>-1425.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>49695.426166</v>
+        <v>49695.426165999997</v>
       </c>
       <c r="B21" s="1">
         <v>13.804285</v>
       </c>
       <c r="C21" s="1">
-        <v>901.470000</v>
+        <v>901.47</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.768000</v>
+        <v>-198.768</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>49705.839639</v>
+        <v>49705.839638999998</v>
       </c>
       <c r="G21" s="1">
         <v>13.807178</v>
       </c>
       <c r="H21" s="1">
-        <v>918.829000</v>
+        <v>918.82899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.243000</v>
+        <v>-168.24299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>49715.985802</v>
+        <v>49715.985802000003</v>
       </c>
       <c r="L21" s="1">
         <v>13.809996</v>
       </c>
       <c r="M21" s="1">
-        <v>942.070000</v>
+        <v>942.07</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.627000</v>
+        <v>-119.627</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>49726.261918</v>
+        <v>49726.261917999997</v>
       </c>
       <c r="Q21" s="1">
         <v>13.812851</v>
       </c>
       <c r="R21" s="1">
-        <v>948.853000</v>
+        <v>948.85299999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.468000</v>
+        <v>-103.468</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>49736.726511</v>
+        <v>49736.726511000001</v>
       </c>
       <c r="V21" s="1">
         <v>13.815757</v>
       </c>
       <c r="W21" s="1">
-        <v>955.384000</v>
+        <v>955.38400000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.423200</v>
+        <v>-88.423199999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>49747.258065</v>
+        <v>49747.258065000002</v>
       </c>
       <c r="AA21" s="1">
         <v>13.818683</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.464000</v>
+        <v>962.46400000000006</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.893400</v>
+        <v>-76.8934</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>49758.061924</v>
+        <v>49758.061924000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.821684</v>
+        <v>13.821683999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.194000</v>
+        <v>967.19399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.792200</v>
+        <v>-74.792199999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>49768.630182</v>
+        <v>49768.630182000001</v>
       </c>
       <c r="AK21" s="1">
         <v>13.824619</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.394000</v>
+        <v>974.39400000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.637200</v>
+        <v>-79.637200000000007</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>49779.590806</v>
@@ -5484,118 +5900,118 @@
         <v>13.827664</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.518000</v>
+        <v>982.51800000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.325600</v>
+        <v>-91.325599999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>49790.329197</v>
+        <v>49790.329196999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.830647</v>
+        <v>13.830647000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>992.434000</v>
+        <v>992.43399999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.136000</v>
+        <v>-109.136</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>49801.334889</v>
+        <v>49801.334888999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.833704</v>
+        <v>13.833704000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.822000</v>
+        <v>-124.822</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>49812.382779</v>
       </c>
       <c r="BE21" s="1">
-        <v>13.836773</v>
+        <v>13.836773000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1039.680000</v>
+        <v>1039.68</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>49823.420765</v>
+        <v>49823.420765000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.839839</v>
       </c>
       <c r="BK21" s="1">
-        <v>1106.620000</v>
+        <v>1106.6199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.473000</v>
+        <v>-313.47300000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>49834.804465</v>
+        <v>49834.804465000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.843001</v>
+        <v>13.843000999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.870000</v>
+        <v>1214.8699999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-497.232000</v>
+        <v>-497.23200000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>49846.267966</v>
+        <v>49846.267965999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.846186</v>
+        <v>13.846185999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.360000</v>
+        <v>1336.36</v>
       </c>
       <c r="BV21" s="1">
-        <v>-698.772000</v>
+        <v>-698.77200000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>49857.205757</v>
+        <v>49857.205757000003</v>
       </c>
       <c r="BY21" s="1">
         <v>13.849224</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-914.109000</v>
+        <v>-914.10900000000004</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>49870.139422</v>
@@ -5604,225 +6020,225 @@
         <v>13.852817</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.110000</v>
+        <v>1829.11</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1424.900000</v>
+        <v>-1424.9</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>49696.075892</v>
+        <v>49696.075892000001</v>
       </c>
       <c r="B22" s="1">
         <v>13.804466</v>
       </c>
       <c r="C22" s="1">
-        <v>901.413000</v>
+        <v>901.41300000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.894000</v>
+        <v>-198.89400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>49706.218584</v>
+        <v>49706.218584000002</v>
       </c>
       <c r="G22" s="1">
         <v>13.807283</v>
       </c>
       <c r="H22" s="1">
-        <v>918.768000</v>
+        <v>918.76800000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.216000</v>
+        <v>-168.21600000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>49716.361802</v>
+        <v>49716.361801999999</v>
       </c>
       <c r="L22" s="1">
         <v>13.810101</v>
       </c>
       <c r="M22" s="1">
-        <v>942.038000</v>
+        <v>942.03800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.699000</v>
+        <v>-119.699</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>49726.610140</v>
+        <v>49726.610139999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.812947</v>
+        <v>13.812946999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.819000</v>
+        <v>948.81899999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.480000</v>
+        <v>-103.48</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>49737.074206</v>
+        <v>49737.074205999998</v>
       </c>
       <c r="V22" s="1">
         <v>13.815854</v>
       </c>
       <c r="W22" s="1">
-        <v>955.388000</v>
+        <v>955.38800000000003</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.541400</v>
+        <v>-88.541399999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>49747.601326</v>
+        <v>49747.601326000004</v>
       </c>
       <c r="AA22" s="1">
         <v>13.818778</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.508000</v>
+        <v>962.50800000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.910400</v>
+        <v>-76.910399999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>49758.480547</v>
+        <v>49758.480546999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.821800</v>
+        <v>13.8218</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.252000</v>
+        <v>967.25199999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.775900</v>
+        <v>-74.775899999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>49769.060212</v>
+        <v>49769.060211999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.824739</v>
+        <v>13.824738999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.411000</v>
+        <v>974.41099999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.629600</v>
+        <v>-79.629599999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>49779.893829</v>
+        <v>49779.893829000001</v>
       </c>
       <c r="AP22" s="1">
         <v>13.827748</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.544000</v>
+        <v>982.54399999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.331800</v>
+        <v>-91.331800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>49790.690247</v>
+        <v>49790.690246999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.830747</v>
+        <v>13.830747000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>992.425000</v>
+        <v>992.42499999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.134000</v>
+        <v>-109.134</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>49801.696009</v>
+        <v>49801.696008999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.833804</v>
+        <v>13.833804000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1000.780000</v>
+        <v>1000.78</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.814000</v>
+        <v>-124.81399999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>49812.739907</v>
+        <v>49812.739907000003</v>
       </c>
       <c r="BE22" s="1">
         <v>13.836872</v>
       </c>
       <c r="BF22" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.836000</v>
+        <v>-196.83600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>49824.181115</v>
+        <v>49824.181114999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.840050</v>
+        <v>13.84005</v>
       </c>
       <c r="BK22" s="1">
-        <v>1106.630000</v>
+        <v>1106.6300000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.462000</v>
+        <v>-313.46199999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>49835.624814</v>
+        <v>49835.624814000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.843229</v>
+        <v>13.843228999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.930000</v>
+        <v>1214.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-497.247000</v>
+        <v>-497.24700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>49846.684642</v>
@@ -5831,28 +6247,28 @@
         <v>13.846301</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.320000</v>
+        <v>1336.32</v>
       </c>
       <c r="BV22" s="1">
-        <v>-698.794000</v>
+        <v>-698.79399999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>49857.652670</v>
+        <v>49857.652670000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.849348</v>
+        <v>13.849348000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-913.961000</v>
+        <v>-913.96100000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>49870.669187</v>
@@ -5861,105 +6277,105 @@
         <v>13.852964</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.530000</v>
+        <v>1830.53</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1425.390000</v>
+        <v>-1425.39</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>49696.452370</v>
+        <v>49696.452369999999</v>
       </c>
       <c r="B23" s="1">
-        <v>13.804570</v>
+        <v>13.80457</v>
       </c>
       <c r="C23" s="1">
-        <v>901.430000</v>
+        <v>901.43</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.918000</v>
+        <v>-198.91800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>49706.562838</v>
+        <v>49706.562837999998</v>
       </c>
       <c r="G23" s="1">
-        <v>13.807379</v>
+        <v>13.807378999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>919.099000</v>
+        <v>919.09900000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.949000</v>
+        <v>-167.94900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>49716.707976</v>
+        <v>49716.707975999998</v>
       </c>
       <c r="L23" s="1">
-        <v>13.810197</v>
+        <v>13.810197000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>941.986000</v>
+        <v>941.98599999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.611000</v>
+        <v>-119.611</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>49726.961276</v>
+        <v>49726.961276000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.813045</v>
+        <v>13.813045000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.812000</v>
+        <v>948.81200000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.468000</v>
+        <v>-103.468</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>49737.502267</v>
+        <v>49737.502267000003</v>
       </c>
       <c r="V23" s="1">
         <v>13.815973</v>
       </c>
       <c r="W23" s="1">
-        <v>955.356000</v>
+        <v>955.35599999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.547200</v>
+        <v>-88.547200000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>49748.036289</v>
+        <v>49748.036289000003</v>
       </c>
       <c r="AA23" s="1">
         <v>13.818899</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.541000</v>
+        <v>962.54100000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.943300</v>
+        <v>-76.943299999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>49758.774178</v>
@@ -5968,13 +6384,13 @@
         <v>13.821882</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.194000</v>
+        <v>967.19399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.885700</v>
+        <v>-74.8857</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>49769.343429</v>
@@ -5983,43 +6399,43 @@
         <v>13.824818</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.426000</v>
+        <v>974.42600000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.646100</v>
+        <v>-79.646100000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>49780.257429</v>
+        <v>49780.257428999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.827849</v>
+        <v>13.827849000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.515000</v>
+        <v>982.51499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.347900</v>
+        <v>-91.347899999999996</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>49791.058804</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.830850</v>
+        <v>13.83085</v>
       </c>
       <c r="AV23" s="1">
-        <v>992.448000</v>
+        <v>992.44799999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.103000</v>
+        <v>-109.10299999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>49802.052636</v>
@@ -6028,165 +6444,165 @@
         <v>13.833904</v>
       </c>
       <c r="BA23" s="1">
-        <v>1000.760000</v>
+        <v>1000.76</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.821000</v>
+        <v>-124.821</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>49813.467033</v>
+        <v>49813.467033000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.837074</v>
+        <v>13.837073999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.845000</v>
+        <v>-196.845</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>49824.558591</v>
+        <v>49824.558591000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.840155</v>
+        <v>13.840154999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1106.610000</v>
+        <v>1106.6099999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.488000</v>
+        <v>-313.488</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>49836.037981</v>
+        <v>49836.037981000001</v>
       </c>
       <c r="BO23" s="1">
         <v>13.843344</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.950000</v>
+        <v>1214.95</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-497.221000</v>
+        <v>-497.221</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>49847.114668</v>
+        <v>49847.114668000002</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.846421</v>
+        <v>13.846420999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-698.780000</v>
+        <v>-698.78</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>49858.396671</v>
+        <v>49858.396671000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.849555</v>
+        <v>13.849555000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="CA23" s="1">
-        <v>-913.903000</v>
+        <v>-913.90300000000002</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>49871.555996</v>
+        <v>49871.555996000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.853210</v>
+        <v>13.853210000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1830.790000</v>
+        <v>1830.79</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1423.860000</v>
+        <v>-1423.86</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>49696.796579</v>
+        <v>49696.796579000002</v>
       </c>
       <c r="B24" s="1">
-        <v>13.804666</v>
+        <v>13.804665999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>901.498000</v>
+        <v>901.49800000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.723000</v>
+        <v>-198.72300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>49706.909046</v>
+        <v>49706.909046000001</v>
       </c>
       <c r="G24" s="1">
         <v>13.807475</v>
       </c>
       <c r="H24" s="1">
-        <v>919.065000</v>
+        <v>919.06500000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.118000</v>
+        <v>-168.11799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>49717.052202</v>
+        <v>49717.052201999999</v>
       </c>
       <c r="L24" s="1">
         <v>13.810292</v>
       </c>
       <c r="M24" s="1">
-        <v>942.027000</v>
+        <v>942.02700000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.745000</v>
+        <v>-119.745</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>49727.381883</v>
+        <v>49727.381883000002</v>
       </c>
       <c r="Q24" s="1">
         <v>13.813162</v>
       </c>
       <c r="R24" s="1">
-        <v>948.840000</v>
+        <v>948.84</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.422000</v>
+        <v>-103.422</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>49737.777037</v>
@@ -6195,405 +6611,405 @@
         <v>13.816049</v>
       </c>
       <c r="W24" s="1">
-        <v>955.370000</v>
+        <v>955.37</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.486300</v>
+        <v>-88.4863</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>49748.305119</v>
+        <v>49748.305118999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.818974</v>
+        <v>13.818974000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.523000</v>
+        <v>962.52300000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.938800</v>
+        <v>-76.938800000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>49759.116452</v>
+        <v>49759.116452000002</v>
       </c>
       <c r="AF24" s="1">
         <v>13.821977</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.213000</v>
+        <v>967.21299999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.749100</v>
+        <v>-74.749099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>49769.692152</v>
+        <v>49769.692152000003</v>
       </c>
       <c r="AK24" s="1">
         <v>13.824914</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.411000</v>
+        <v>974.41099999999994</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.644300</v>
+        <v>-79.644300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>49780.617029</v>
+        <v>49780.617029000001</v>
       </c>
       <c r="AP24" s="1">
         <v>13.827949</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.526000</v>
+        <v>982.52599999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.348900</v>
+        <v>-91.3489</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>49791.785451</v>
+        <v>49791.785451000003</v>
       </c>
       <c r="AU24" s="1">
         <v>13.831052</v>
       </c>
       <c r="AV24" s="1">
-        <v>992.422000</v>
+        <v>992.42200000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.122000</v>
+        <v>-109.122</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>49802.773820</v>
+        <v>49802.773820000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.834104</v>
       </c>
       <c r="BA24" s="1">
-        <v>1000.790000</v>
+        <v>1000.79</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.803000</v>
+        <v>-124.803</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>49813.827657</v>
+        <v>49813.827657000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.837174</v>
+        <v>13.837173999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.857000</v>
+        <v>-196.857</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>49824.936064</v>
+        <v>49824.936064000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.840260</v>
+        <v>13.840260000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1106.580000</v>
+        <v>1106.58</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.467000</v>
+        <v>-313.46699999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>49836.437269</v>
+        <v>49836.437269000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.843455</v>
+        <v>13.843455000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.890000</v>
+        <v>1214.8900000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-497.241000</v>
+        <v>-497.24099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>49847.843755</v>
+        <v>49847.843755000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.846623</v>
+        <v>13.846622999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-698.849000</v>
+        <v>-698.84900000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>49858.517166</v>
+        <v>49858.517165999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.849588</v>
+        <v>13.849588000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA24" s="1">
-        <v>-914.006000</v>
+        <v>-914.00599999999997</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>49871.706781</v>
+        <v>49871.706781000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.853252</v>
+        <v>13.853251999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.440000</v>
+        <v>1829.44</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1423.970000</v>
+        <v>-1423.97</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>49697.138355</v>
+        <v>49697.138355000003</v>
       </c>
       <c r="B25" s="1">
-        <v>13.804761</v>
+        <v>13.804760999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>901.437000</v>
+        <v>901.43700000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.893000</v>
+        <v>-198.893</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>49707.327670</v>
+        <v>49707.327669999999</v>
       </c>
       <c r="G25" s="1">
         <v>13.807591</v>
       </c>
       <c r="H25" s="1">
-        <v>919.085000</v>
+        <v>919.08500000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.391000</v>
+        <v>-168.39099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>49717.484217</v>
+        <v>49717.484216999997</v>
       </c>
       <c r="L25" s="1">
-        <v>13.810412</v>
+        <v>13.810411999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>942.049000</v>
+        <v>942.04899999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.620000</v>
+        <v>-119.62</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>49727.658683</v>
+        <v>49727.658683000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.813239</v>
+        <v>13.813238999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>948.798000</v>
+        <v>948.798</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.442000</v>
+        <v>-103.44199999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>49738.120802</v>
+        <v>49738.120801999998</v>
       </c>
       <c r="V25" s="1">
-        <v>13.816145</v>
+        <v>13.816145000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>955.234000</v>
+        <v>955.23400000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.487900</v>
+        <v>-88.487899999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>49748.657280</v>
+        <v>49748.657279999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.819071</v>
+        <v>13.819070999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.506000</v>
+        <v>962.50599999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.934700</v>
+        <v>-76.934700000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>49759.460145</v>
+        <v>49759.460144999997</v>
       </c>
       <c r="AF25" s="1">
         <v>13.822072</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.229000</v>
+        <v>967.22900000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.810900</v>
+        <v>-74.810900000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>49770.038818</v>
+        <v>49770.038818000001</v>
       </c>
       <c r="AK25" s="1">
         <v>13.825011</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.427000</v>
+        <v>974.42700000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.636100</v>
+        <v>-79.636099999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>49781.344163</v>
+        <v>49781.344163000002</v>
       </c>
       <c r="AP25" s="1">
         <v>13.828151</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.525000</v>
+        <v>982.52499999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.333100</v>
+        <v>-91.333100000000002</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>49792.175304</v>
+        <v>49792.175303999997</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.831160</v>
+        <v>13.831160000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>992.431000</v>
+        <v>992.43100000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.133000</v>
+        <v>-109.133</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>49803.148263</v>
+        <v>49803.148263000003</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.834208</v>
       </c>
       <c r="BA25" s="1">
-        <v>1000.750000</v>
+        <v>1000.75</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.811000</v>
+        <v>-124.81100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>49814.192203</v>
+        <v>49814.192202999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.837276</v>
+        <v>13.837275999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1039.700000</v>
+        <v>1039.7</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.868000</v>
+        <v>-196.86799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>49825.643818</v>
+        <v>49825.643817999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>13.840457</v>
+        <v>13.840457000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.590000</v>
+        <v>1106.5899999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.475000</v>
+        <v>-313.47500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>49837.171835</v>
+        <v>49837.171835000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.843659</v>
+        <v>13.843659000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.910000</v>
+        <v>1214.9100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-497.254000</v>
+        <v>-497.25400000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>49847.956522</v>
@@ -6602,302 +7018,303 @@
         <v>13.846655</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.350000</v>
+        <v>1336.35</v>
       </c>
       <c r="BV25" s="1">
-        <v>-698.876000</v>
+        <v>-698.87599999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>49858.942246</v>
+        <v>49858.942245999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.849706</v>
+        <v>13.849705999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA25" s="1">
-        <v>-914.066000</v>
+        <v>-914.06600000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>49872.224139</v>
+        <v>49872.224138999998</v>
       </c>
       <c r="CD25" s="1">
         <v>13.853396</v>
       </c>
       <c r="CE25" s="1">
-        <v>1829.800000</v>
+        <v>1829.8</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1423.940000</v>
+        <v>-1423.94</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>49697.560915</v>
+        <v>49697.560915000002</v>
       </c>
       <c r="B26" s="1">
         <v>13.804878</v>
       </c>
       <c r="C26" s="1">
-        <v>901.386000</v>
+        <v>901.38599999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.700000</v>
+        <v>-198.7</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>49707.601926</v>
+        <v>49707.601926000003</v>
       </c>
       <c r="G26" s="1">
         <v>13.807667</v>
       </c>
       <c r="H26" s="1">
-        <v>919.025000</v>
+        <v>919.02499999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.524000</v>
+        <v>-168.524</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>49717.762969</v>
+        <v>49717.762969000003</v>
       </c>
       <c r="L26" s="1">
-        <v>13.810490</v>
+        <v>13.81049</v>
       </c>
       <c r="M26" s="1">
-        <v>942.009000</v>
+        <v>942.00900000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.446000</v>
+        <v>-119.446</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>49728.008330</v>
+        <v>49728.008329999997</v>
       </c>
       <c r="Q26" s="1">
         <v>13.813336</v>
       </c>
       <c r="R26" s="1">
-        <v>948.822000</v>
+        <v>948.822</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.444000</v>
+        <v>-103.444</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>49738.461051</v>
+        <v>49738.461050999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.816239</v>
+        <v>13.816238999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.365000</v>
+        <v>955.36500000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.431000</v>
+        <v>-88.430999999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>49749.006958</v>
+        <v>49749.006957999998</v>
       </c>
       <c r="AA26" s="1">
         <v>13.819169</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.526000</v>
+        <v>962.52599999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.931900</v>
+        <v>-76.931899999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>49760.147605</v>
+        <v>49760.147604999998</v>
       </c>
       <c r="AF26" s="1">
         <v>13.822263</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.223000</v>
+        <v>967.22299999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.820600</v>
+        <v>-74.820599999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>49770.735699</v>
+        <v>49770.735698999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.825204</v>
+        <v>13.825203999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.402000</v>
+        <v>974.40200000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.625900</v>
+        <v>-79.625900000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>49781.723076</v>
+        <v>49781.723076000002</v>
       </c>
       <c r="AP26" s="1">
         <v>13.828256</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.516000</v>
+        <v>982.51599999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.339100</v>
+        <v>-91.339100000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>49792.540822</v>
+        <v>49792.540822000003</v>
       </c>
       <c r="AU26" s="1">
         <v>13.831261</v>
       </c>
       <c r="AV26" s="1">
-        <v>992.436000</v>
+        <v>992.43600000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.130000</v>
+        <v>-109.13</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>49803.528696</v>
+        <v>49803.528696000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.834314</v>
+        <v>13.834314000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1000.770000</v>
+        <v>1000.77</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.816000</v>
+        <v>-124.816</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>49814.855335</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.837460</v>
+        <v>13.83746</v>
       </c>
       <c r="BF26" s="1">
-        <v>1039.690000</v>
+        <v>1039.69</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.823000</v>
+        <v>-196.82300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>49826.085258</v>
+        <v>49826.085257999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.840579</v>
       </c>
       <c r="BK26" s="1">
-        <v>1106.620000</v>
+        <v>1106.6199999999999</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.459000</v>
+        <v>-313.459</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>49837.696602</v>
+        <v>49837.696602000004</v>
       </c>
       <c r="BO26" s="1">
         <v>13.843805</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.920000</v>
+        <v>1214.92</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-497.236000</v>
+        <v>-497.23599999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>49848.393853</v>
+        <v>49848.393853000001</v>
       </c>
       <c r="BT26" s="1">
         <v>13.846776</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.330000</v>
+        <v>1336.33</v>
       </c>
       <c r="BV26" s="1">
-        <v>-698.901000</v>
+        <v>-698.90099999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>49859.360366</v>
+        <v>49859.360366000001</v>
       </c>
       <c r="BY26" s="1">
         <v>13.849822</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA26" s="1">
-        <v>-914.003000</v>
+        <v>-914.00300000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>49872.774666</v>
+        <v>49872.774665999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.853549</v>
+        <v>13.853548999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1423.870000</v>
+        <v>-1423.87</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>